--- a/data/case1/16/Q2_4.xlsx
+++ b/data/case1/16/Q2_4.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.07572472021161758</v>
+        <v>0.075632155939885592</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.0032273680680496852</v>
+        <v>0.001315162347808041</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.00399999986205124</v>
+        <v>-0.0039999999307713807</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.0079999997368727094</v>
+        <v>-0.0079999998659694427</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0029999998562271202</v>
+        <v>-0.0029999999280274636</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0019999998349984338</v>
+        <v>-0.0019999999205619901</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.0099999996169080063</v>
+        <v>-0.0099999998086865993</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.009999999626295164</v>
+        <v>-0.0099999998137709767</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0019999998677775466</v>
+        <v>-0.001999999937651431</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0019999998916571116</v>
+        <v>-0.0019999999495716736</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.038547117393946451</v>
+        <v>0.042131186668121323</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.003499999852428104</v>
+        <v>-0.0034999999286822181</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0034999998579143821</v>
+        <v>-0.0034999999308205076</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0079999997371569265</v>
+        <v>-0.0079999998685558182</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.00099999993489419126</v>
+        <v>-0.00099999996966637639</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0019999999151334436</v>
+        <v>-0.0019999999590263329</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0019999999365492016</v>
+        <v>-0.0019999999679036762</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.023528491166169729</v>
+        <v>0.021377727898507892</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.018425154465805615</v>
+        <v>0.018879431748225262</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0039999998744946197</v>
+        <v>-0.0039999999367754668</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.003999999872793758</v>
+        <v>-0.0039999999359716654</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0039999998726605313</v>
+        <v>-0.003999999935691001</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0049999998372767251</v>
+        <v>-0.0049999999180734278</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.039862755225148483</v>
+        <v>0.040125883205858415</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.019999999425015069</v>
+        <v>-0.019999999706506344</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0024999998119294986</v>
+        <v>-0.0024999999084176494</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0024999997967736221</v>
+        <v>-0.0024999999011807716</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0019999997378885581</v>
+        <v>-0.0019999998750686032</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.0069999995518204017</v>
+        <v>-0.0069999997820611171</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.059999998072554295</v>
+        <v>-0.059999999023261363</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.0069999995133454007</v>
+        <v>-0.0069999997635594724</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0099999994290325134</v>
+        <v>-0.0099999997202857571</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.0039999995942334721</v>
+        <v>-0.0039999998048596552</v>
       </c>
     </row>
   </sheetData>
